--- a/atomica/library/combined_framework.xlsx
+++ b/atomica/library/combined_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D0664-F590-42EE-B1DE-2C84866EBCB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77619AD4-EE8B-41DB-9D06-97484DB148FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -1130,6 +1130,21 @@
   </si>
   <si>
     <t>SRC_POP_SUM(foi,udt_ctc)</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Environment parameters only</t>
+  </si>
+  <si>
+    <t>SRC_POP_SUM(foi)</t>
+  </si>
+  <si>
+    <t>sum_foi_env</t>
+  </si>
+  <si>
+    <t>Summed FOI enviroment</t>
   </si>
 </sst>
 </file>
@@ -2073,16 +2088,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1DFFE9-89FE-4855-871D-DB0CA70E68DF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,6 +2122,14 @@
       </c>
       <c r="B3" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3002,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,6 +3415,23 @@
       </c>
       <c r="K15" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/library/combined_framework.xlsx
+++ b/atomica/library/combined_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77619AD4-EE8B-41DB-9D06-97484DB148FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72EB13-1A6D-436B-96CC-C5586986239D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -967,9 +967,6 @@
     <t>(1 - (1-ch_prev*transpercontact)**floor(contacts)*(1-ch_prev*transpercontact*(contacts-floor(contacts))))*(1-susdeath)</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>Constituents</t>
   </si>
   <si>
@@ -1145,6 +1142,12 @@
   </si>
   <si>
     <t>Summed FOI enviroment</t>
+  </si>
+  <si>
+    <t>sir_cascade</t>
+  </si>
+  <si>
+    <t>udt_cascade</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1704,18 +1721,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1761,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1795,10 +1812,10 @@
         <v>17</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1823,7 +1840,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>700</v>
@@ -1849,7 +1866,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,7 +1889,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1895,7 +1912,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1911,10 +1928,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1923,15 +1940,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1940,15 +1957,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1957,7 +1974,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2072,7 +2089,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2102,7 +2119,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2110,7 +2127,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2118,18 +2135,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2239,27 +2256,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2267,23 +2284,23 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2443,44 +2460,44 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,7 +2580,7 @@
         <v>34</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,71 +2748,71 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="11">
         <v>6000</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="11">
         <v>3600</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="11">
         <v>1800</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3009,12 +3026,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C13">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(#REF!&lt;&gt;"",NOT(C11&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3027,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3058,10 +3075,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>56</v>
@@ -3076,7 +3093,7 @@
         <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3103,7 +3120,7 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3127,7 +3144,7 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3154,7 +3171,7 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3181,7 +3198,7 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3208,7 +3225,7 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3230,7 +3247,7 @@
         <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3238,33 +3255,33 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3278,18 +3295,18 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -3302,24 +3319,24 @@
         <v>27</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3333,18 +3350,18 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -3357,24 +3374,24 @@
         <v>27</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3388,18 +3405,18 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3411,37 +3428,37 @@
         <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B15">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D14">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(#REF!&lt;&gt;"",NOT(D10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3460,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,39 +3489,109 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A7:A9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(XFD7&lt;&gt;"",NOT(A7&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/atomica/library/combined_framework.xlsx
+++ b/atomica/library/combined_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72EB13-1A6D-436B-96CC-C5586986239D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AAA4B-3D23-4CAE-ADD2-2D283BC3B9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Characteristics" sheetId="5" r:id="rId7"/>
     <sheet name="Parameters" sheetId="6" r:id="rId8"/>
     <sheet name="Cascades" sheetId="7" r:id="rId9"/>
+    <sheet name="Plots" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -754,8 +755,45 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>None</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E0A6107-2F83-4B61-AE65-8487AD3B3661}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This column is for the 'display name' of a compartment within a
+population cascade, a state that an entity can exist in that is
+distinct from all other states.
+Examples may include 'Susceptible', 'Infected Stage 1', 'Recovered',
+etc.
+If entities in the network involve two 'orthogonal' descriptors,
+compartments should combine the status of each state in the title,
+e.g. 'High Income Earner + Year 12 Education', to make sure that each
+entity in a cascade is only ever in one state at a time.
+It is possible to bundle independent states as analytical features of
+interest elsewhere in the framework file.
+Note: A display name is a representative label that users interface
+with (e.g. in databooks and plots).
+It should be in title or sentence case.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -1148,6 +1186,27 @@
   </si>
   <si>
     <t>udt_cascade</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>SIR total</t>
+  </si>
+  <si>
+    <t>UDT total</t>
+  </si>
+  <si>
+    <t>SIR dict</t>
+  </si>
+  <si>
+    <t>SIR function</t>
+  </si>
+  <si>
+    <t>{'alive':['sus','inf','rec']}</t>
+  </si>
+  <si>
+    <t>{'alive':'sus+inf+rec'}</t>
   </si>
 </sst>
 </file>
@@ -1262,14 +1321,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1682,6 +1734,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACC3CA1-B25B-46ED-AC21-946C8547442C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
@@ -1761,7 +1873,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1775,7 +1887,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I7"/>
+      <selection activeCell="A4" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2201,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2108,7 +2220,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2651,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,12 +3138,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C13">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(#REF!&lt;&gt;"",NOT(C11&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3453,12 +3565,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B15">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D14">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(#REF!&lt;&gt;"",NOT(D10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3479,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/atomica/library/combined_framework.xlsx
+++ b/atomica/library/combined_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AAA4B-3D23-4CAE-ADD2-2D283BC3B9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF74B79-4FF5-3F46-A8F4-57C688562643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11120" yWindow="5120" windowWidth="28060" windowHeight="17200" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -341,7 +347,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Romesh:</t>
         </r>
@@ -350,7 +356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Leaving it blank will default to the first population type</t>
@@ -975,9 +981,6 @@
     <t>Transmission probability per contact</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -987,9 +990,6 @@
     <t>Average duration of infections (years)</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>infdeath</t>
   </si>
   <si>
@@ -1101,112 +1101,118 @@
     <t>Diagnosis rate</t>
   </si>
   <si>
+    <t>num_diag/max(undx,num_diag)</t>
+  </si>
+  <si>
+    <t>num_initiate</t>
+  </si>
+  <si>
+    <t>Annual number newly initiated onto treatment</t>
+  </si>
+  <si>
+    <t>Initiation rate</t>
+  </si>
+  <si>
+    <t>num_initiate/max(dx,num_initiate)</t>
+  </si>
+  <si>
+    <t>num_loss</t>
+  </si>
+  <si>
+    <t>Annual number lost to follow-up</t>
+  </si>
+  <si>
+    <t>Loss-to-follow-up rate</t>
+  </si>
+  <si>
+    <t>num_loss/max(tx,num_loss)</t>
+  </si>
+  <si>
+    <t>Minimum value</t>
+  </si>
+  <si>
+    <t>Maximum value</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Flows</t>
+  </si>
+  <si>
+    <t>sir_ctc</t>
+  </si>
+  <si>
+    <t>udt_ctc</t>
+  </si>
+  <si>
+    <t>SIR weightings</t>
+  </si>
+  <si>
+    <t>UDT weightings</t>
+  </si>
+  <si>
+    <t>Default value</t>
+  </si>
+  <si>
+    <t>From population type</t>
+  </si>
+  <si>
+    <t>To population type</t>
+  </si>
+  <si>
+    <t>SRC_POP_SUM(foi,udt_ctc)</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Environment parameters only</t>
+  </si>
+  <si>
+    <t>SRC_POP_SUM(foi)</t>
+  </si>
+  <si>
+    <t>sum_foi_env</t>
+  </si>
+  <si>
+    <t>Summed FOI enviroment</t>
+  </si>
+  <si>
+    <t>sir_cascade</t>
+  </si>
+  <si>
+    <t>udt_cascade</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>SIR total</t>
+  </si>
+  <si>
+    <t>UDT total</t>
+  </si>
+  <si>
+    <t>SIR dict</t>
+  </si>
+  <si>
+    <t>SIR function</t>
+  </si>
+  <si>
+    <t>{'alive':['sus','inf','rec']}</t>
+  </si>
+  <si>
+    <t>{'alive':'sus+inf+rec'}</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>probability</t>
-  </si>
-  <si>
-    <t>num_diag/max(undx,num_diag)</t>
-  </si>
-  <si>
-    <t>num_initiate</t>
-  </si>
-  <si>
-    <t>Annual number newly initiated onto treatment</t>
-  </si>
-  <si>
-    <t>Initiation rate</t>
-  </si>
-  <si>
-    <t>num_initiate/max(dx,num_initiate)</t>
-  </si>
-  <si>
-    <t>num_loss</t>
-  </si>
-  <si>
-    <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
-    <t>Loss-to-follow-up rate</t>
-  </si>
-  <si>
-    <t>num_loss/max(tx,num_loss)</t>
-  </si>
-  <si>
-    <t>Minimum value</t>
-  </si>
-  <si>
-    <t>Maximum value</t>
-  </si>
-  <si>
-    <t>Stocks</t>
-  </si>
-  <si>
-    <t>Flows</t>
-  </si>
-  <si>
-    <t>sir_ctc</t>
-  </si>
-  <si>
-    <t>udt_ctc</t>
-  </si>
-  <si>
-    <t>SIR weightings</t>
-  </si>
-  <si>
-    <t>UDT weightings</t>
-  </si>
-  <si>
-    <t>Default value</t>
-  </si>
-  <si>
-    <t>From population type</t>
-  </si>
-  <si>
-    <t>To population type</t>
-  </si>
-  <si>
-    <t>SRC_POP_SUM(foi,udt_ctc)</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Environment parameters only</t>
-  </si>
-  <si>
-    <t>SRC_POP_SUM(foi)</t>
-  </si>
-  <si>
-    <t>sum_foi_env</t>
-  </si>
-  <si>
-    <t>Summed FOI enviroment</t>
-  </si>
-  <si>
-    <t>sir_cascade</t>
-  </si>
-  <si>
-    <t>udt_cascade</t>
-  </si>
-  <si>
-    <t>Quantities</t>
-  </si>
-  <si>
-    <t>SIR total</t>
-  </si>
-  <si>
-    <t>UDT total</t>
-  </si>
-  <si>
-    <t>SIR dict</t>
-  </si>
-  <si>
-    <t>SIR function</t>
-  </si>
-  <si>
-    <t>{'alive':['sus','inf','rec']}</t>
-  </si>
-  <si>
-    <t>{'alive':'sus+inf+rec'}</t>
   </si>
 </sst>
 </file>
@@ -1239,14 +1245,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1385,9 +1391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1425,9 +1431,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,26 +1466,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1512,26 +1501,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1711,9 +1683,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1738,54 +1710,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACC3CA1-B25B-46ED-AC21-946C8547442C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1802,12 +1774,12 @@
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1831,43 +1803,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1890,15 +1862,15 @@
       <selection activeCell="A4" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -1924,13 +1896,13 @@
         <v>17</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1952,13 +1924,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1978,10 +1950,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -2001,10 +1973,10 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2024,10 +1996,10 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2038,12 +2010,12 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2052,15 +2024,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2069,15 +2041,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2086,10 +2058,10 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2100,7 +2072,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2111,7 +2083,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2122,7 +2094,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2133,7 +2105,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2144,7 +2116,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2155,7 +2127,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2166,7 +2138,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2177,7 +2149,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2188,7 +2160,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2223,42 +2195,42 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2272,19 +2244,19 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="9" t="str">
         <f>Compartments!A2</f>
@@ -2304,7 +2276,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -2319,7 +2291,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="str">
         <f>Compartments!A3</f>
         <v>inf</v>
@@ -2334,7 +2306,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>Compartments!A4</f>
         <v>rec</v>
@@ -2347,7 +2319,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>Compartments!A5</f>
         <v>dead</v>
@@ -2358,7 +2330,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2366,59 +2338,59 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2426,7 +2398,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2434,7 +2406,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2442,7 +2414,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2450,7 +2422,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2458,7 +2430,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2466,7 +2438,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2474,7 +2446,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2482,7 +2454,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2490,7 +2462,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2498,7 +2470,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2506,7 +2478,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2514,7 +2486,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2522,7 +2494,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2530,7 +2502,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2552,16 +2524,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2572,71 +2544,71 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
@@ -2654,19 +2626,19 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2692,10 +2664,10 @@
         <v>34</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2716,7 +2688,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2739,7 +2711,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -2756,7 +2728,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +2745,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2790,7 +2762,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2809,7 +2781,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -2828,7 +2800,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +2819,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2858,76 +2830,76 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="11">
         <v>6000</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="11">
         <v>3600</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="11">
         <v>1800</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2938,7 +2910,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2949,7 +2921,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2960,7 +2932,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2971,7 +2943,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2982,7 +2954,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2993,7 +2965,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3004,7 +2976,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3015,7 +2987,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3026,7 +2998,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3037,7 +3009,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3048,7 +3020,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3059,7 +3031,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3070,7 +3042,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3081,7 +3053,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3092,7 +3064,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3103,7 +3075,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3114,7 +3086,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3125,7 +3097,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3156,24 +3128,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -3187,10 +3159,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>56</v>
@@ -3205,18 +3177,18 @@
         <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
+      <c r="C2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3232,16 +3204,17 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3256,18 +3229,18 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -3283,18 +3256,18 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -3310,18 +3283,18 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -3337,18 +3310,18 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3356,44 +3329,45 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3407,48 +3381,46 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3462,48 +3434,46 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3517,50 +3487,51 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3578,8 +3549,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G10:G15" xr:uid="{BCC32A75-D6CD-4587-8FD1-383D483B76E5}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10:C15" xr:uid="{62C14FD9-43E3-4853-8F16-2A7006D41A94}">
-      <formula1>",number,probability,duration,proportion"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{80E02EF6-C639-6341-BE06-A306AC025688}">
+      <formula1>",number,probability,duration,proportion, rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3595,22 +3566,22 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3619,16 +3590,16 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3637,63 +3608,63 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
